--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lori/Desktop/Repos/payg-solar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458193F-EE49-5245-A805-E34691815A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A399D4D-3AC2-954C-B78E-5F29992669BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17460" yWindow="6260" windowWidth="16080" windowHeight="8460" xr2:uid="{241756B6-0FD0-1949-A44E-56B401490B1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>account_state_transition</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>(14762, 7)</t>
+  </si>
+  <si>
+    <t>(772, 6)</t>
+  </si>
+  <si>
+    <t>(107, 3)</t>
+  </si>
+  <si>
+    <t>(42, 6)</t>
+  </si>
+  <si>
+    <t>(9452, 5)</t>
+  </si>
+  <si>
+    <t>(42, 3)</t>
   </si>
 </sst>
 </file>
@@ -461,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25B8779-D69B-9142-804F-1BC39AADA0B5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -477,133 +495,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lori/Desktop/Repos/payg-solar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A399D4D-3AC2-954C-B78E-5F29992669BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05156B-A608-9C48-8711-F07C0F2C1B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17460" yWindow="6260" windowWidth="16080" windowHeight="8460" xr2:uid="{241756B6-0FD0-1949-A44E-56B401490B1B}"/>
+    <workbookView xWindow="-17460" yWindow="6260" windowWidth="16080" windowHeight="8460" activeTab="1" xr2:uid="{241756B6-0FD0-1949-A44E-56B401490B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="q2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>account_state_transition</t>
   </si>
@@ -127,16 +128,59 @@
   </si>
   <si>
     <t>(42, 3)</t>
+  </si>
+  <si>
+    <t>DISABLED</t>
+  </si>
+  <si>
+    <t>2020-02-29 20:42:56</t>
+  </si>
+  <si>
+    <t>UNLOCKED</t>
+  </si>
+  <si>
+    <t>2020-02-25 04:28:59</t>
+  </si>
+  <si>
+    <t>2020-02-21 11:40:47</t>
+  </si>
+  <si>
+    <t>2020-02-24 02:00:21</t>
+  </si>
+  <si>
+    <t>2020-01-17 13:01:20</t>
+  </si>
+  <si>
+    <t>to state</t>
+  </si>
+  <si>
+    <t>started when</t>
+  </si>
+  <si>
+    <t>account id</t>
+  </si>
+  <si>
+    <t>from state</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,9 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25B8779-D69B-9142-804F-1BC39AADA0B5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -648,4 +695,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F3AE74-679D-1E43-94CC-31E7A9BA86AF}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>